--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbright\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4419023A-66E9-4AFF-B762-3532D97CDDD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCC4CFAA-DA49-4209-9347-113FB3D59B36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{3342FD3D-B4C7-4460-8D19-D0136E56CFA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -24,9 +24,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>Bright, Kyle</t>
+  </si>
+  <si>
+    <t>Mechtel, Nathan</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DevTime (Hrs)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +54,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -51,12 +96,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +515,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E434F20-65BD-4EDF-BA0E-5CA182637B56}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>43429</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>